--- a/IR_Group_Result.xlsx
+++ b/IR_Group_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcd\CS7IS3_Information_Retrieval_and_Web_Search\Group12\info-retrieval-group-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF8CAD07-7D08-4762-980C-79CFEBB33CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA313D5C-070E-4628-9530-2F4656B87CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{89D1A8FA-B8CB-4408-9885-535037554615}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>Index Fields</t>
   </si>
@@ -131,6 +131,9 @@
   <si>
     <t>P5</t>
   </si>
+  <si>
+    <t>RUN7</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -189,11 +192,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -203,23 +226,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -229,6 +240,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,6 +277,4417 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+              <a:t>Boost B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>enchmark</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUN1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$H$3,Sheet1!$I$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$4,Sheet1!$I$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.26629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2EB9-4928-AD40-FAAF8D394310}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUN5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$H$3,Sheet1!$I$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$32,Sheet1!$I$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.3034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2EB9-4928-AD40-FAAF8D394310}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="832797807"/>
+        <c:axId val="832798639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="832797807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832798639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="832798639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832797807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+              <a:t>Analyzer B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>enchmark</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUN1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$H$3,Sheet1!$I$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$4,Sheet1!$I$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.26629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D874-49E3-89A7-03BA1C4DBFF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUN4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$H$3,Sheet1!$I$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$25,Sheet1!$I$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.23849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D874-49E3-89A7-03BA1C4DBFF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="832797807"/>
+        <c:axId val="832798639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="832797807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832798639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="832798639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832797807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+              <a:t>Retrieval Model B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>enchmark</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUN2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$H$3,Sheet1!$I$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$11,Sheet1!$I$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5464-4A7A-A2FA-90EDCA1BE6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUN4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$H$3,Sheet1!$I$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$25,Sheet1!$I$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.23849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5464-4A7A-A2FA-90EDCA1BE6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="832797807"/>
+        <c:axId val="832798639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="832797807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832798639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="832798639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832797807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+              <a:t>? B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>enchmark</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUN5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$H$3,Sheet1!$I$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$32,Sheet1!$I$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.3034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F86-47E1-9DCD-028F4D538E6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RUN7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$H$3,Sheet1!$I$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$43,Sheet1!$I$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.30330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F86-47E1-9DCD-028F4D538E6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="832797807"/>
+        <c:axId val="832798639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="832797807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832798639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="832798639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832797807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86558520-9AA0-41B9-829C-56D9743765D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73A00E4-3DF5-470F-8D60-8214E3AE7C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B23A5E7-FFFB-419E-8473-B47F9BFEF800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D74AF1-C509-432F-BC98-1B2815D87FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,10 +4987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8126977F-5995-4745-979E-EE5B0CEF5089}">
-  <dimension ref="B3:J42"/>
+  <dimension ref="B3:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F10"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -555,8 +4998,8 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.90625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -564,7 +5007,7 @@
     <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="28">
+    <row r="3" spans="2:10">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -590,10 +5033,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -602,111 +5045,111 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="11">
         <v>0.26629999999999998</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="11">
         <v>0.69599999999999995</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -715,111 +5158,111 @@
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="11">
         <v>0.25679999999999997</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="11">
         <v>0.68</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -828,111 +5271,111 @@
       <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="11">
         <v>0.1865</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="11">
         <v>0.52800000000000002</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -941,181 +5384,181 @@
       <c r="E25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="11">
         <v>0.23849999999999999</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="11">
         <v>0.624</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="12">
         <v>0.3034</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="12">
         <v>0.69599999999999995</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="12" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="12" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="12" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1124,125 +5567,204 @@
       <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="11">
         <v>0.17069999999999999</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="11">
         <v>0.46400000000000002</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="2"/>
     </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="12">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="16"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="16"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="16"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="16"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="16"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="16"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="H25:H31"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="H4:H10"/>
-    <mergeCell ref="I4:I10"/>
-    <mergeCell ref="H11:H17"/>
-    <mergeCell ref="I11:I17"/>
-    <mergeCell ref="H18:H24"/>
-    <mergeCell ref="I18:I24"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B35"/>
+  <mergeCells count="42">
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="G4:G10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="F18:F24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="G25:G31"/>
     <mergeCell ref="B36:B42"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="F32:F35"/>
@@ -1250,21 +5772,27 @@
     <mergeCell ref="C36:C42"/>
     <mergeCell ref="F36:F42"/>
     <mergeCell ref="G36:G42"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="F18:F24"/>
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="G4:G10"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="H11:H17"/>
+    <mergeCell ref="I11:I17"/>
+    <mergeCell ref="H18:H24"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="I25:I31"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="I36:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1440,18 +5968,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1474,14 +6002,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{289C7989-E7FC-4660-9DAC-15B4EBA1C58B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECFC6A8D-F911-43A0-B1E7-90F62ADAAB29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1496,4 +6016,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{289C7989-E7FC-4660-9DAC-15B4EBA1C58B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>